--- a/addons-dev/dgf_asset_nfs/report/import/asset.nfs.request.xlsx
+++ b/addons-dev/dgf_asset_nfs/report/import/asset.nfs.request.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>Банк</t>
   </si>
@@ -93,113 +93,59 @@
     <t>Перелік майна/ID</t>
   </si>
   <si>
-    <t>__export__.asset_nfs_list_3_3064fed4</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_4_8dd4996b</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_5_2172e367</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_6_3719d92c</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_7_4695a875</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_8_256157eb</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_9_ecba70bd</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_10_63950a27</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_11_065507ab</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_12_ce70718d</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_13_0bf8f3a5</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_14_076ab61a</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_15_8e076490</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_16_24a60f74</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_17_17172498</t>
-  </si>
-  <si>
-    <t>__export__.asset_nfs_list_18_b197a699</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>list_id</t>
+    <t>__import__.asset_nfs_list_322302</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_300131</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_380816</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_380418</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_321767</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_380236</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_380612</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_305880</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_351629</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_328760</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_320627</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_322335</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_334828</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_380399</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_300012</t>
+  </si>
+  <si>
+    <t>__import__.asset_nfs_list_300175</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,15 +159,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -245,16 +182,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -285,21 +231,6 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -314,20 +245,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H17" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:H17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F17"/>
   <sortState ref="A2:G17">
     <sortCondition ref="A1:A17"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="2" name="Банк" dataDxfId="9"/>
-    <tableColumn id="3" name="Тип запиту" dataDxfId="8"/>
-    <tableColumn id="4" name="Номер запиту" dataDxfId="7"/>
-    <tableColumn id="5" name="Дата запиту" dataDxfId="6"/>
-    <tableColumn id="6" name="Перелік майна/ID" dataDxfId="5"/>
-    <tableColumn id="7" name="Статус" dataDxfId="2"/>
-    <tableColumn id="1" name="id" dataDxfId="1"/>
-    <tableColumn id="8" name="list_id" dataDxfId="0"/>
+  <tableColumns count="6">
+    <tableColumn id="2" name="Банк" dataDxfId="5"/>
+    <tableColumn id="3" name="Тип запиту" dataDxfId="4"/>
+    <tableColumn id="4" name="Номер запиту" dataDxfId="3"/>
+    <tableColumn id="5" name="Дата запиту" dataDxfId="2"/>
+    <tableColumn id="6" name="Перелік майна/ID" dataDxfId="1"/>
+    <tableColumn id="7" name="Статус" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -620,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H17"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,12 +562,10 @@
     <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,14 +584,8 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -677,14 +598,8 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -697,14 +612,8 @@
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -717,14 +626,8 @@
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -737,14 +640,8 @@
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -757,14 +654,8 @@
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -777,14 +668,8 @@
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -797,14 +682,8 @@
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -817,14 +696,8 @@
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -837,14 +710,8 @@
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -857,14 +724,8 @@
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -877,14 +738,8 @@
       <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -897,14 +752,8 @@
       <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -917,14 +766,8 @@
       <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -937,14 +780,8 @@
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -957,14 +794,8 @@
       <c r="F16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -976,12 +807,6 @@
       </c>
       <c r="F17" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="1">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
